--- a/biology/Botanique/Polystachya_farinosa/Polystachya_farinosa.xlsx
+++ b/biology/Botanique/Polystachya_farinosa/Polystachya_farinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya farinosa Kraenzl. est une espèce d'Orchidées du genre Polystachya, observée au Cameroun et à Sao Tomé-et-Principe. Sur la liste rouge de l'UICN, elle apparaît comme une plante menacée (EN)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya farinosa Kraenzl. est une espèce d'Orchidées du genre Polystachya, observée au Cameroun et à Sao Tomé-et-Principe. Sur la liste rouge de l'UICN, elle apparaît comme une plante menacée (EN).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle n'a été collectée que sur trois sites, dont deux au Cameroun. Le premier spécimen a été trouvé en 1891 sur le mont Cameroun, au-dessus de Buéa, le second en 1968 sur le mont Manengouba. Des données complémentaires sur celui de Sao Tomé demeurent nécessaires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle n'a été collectée que sur trois sites, dont deux au Cameroun. Le premier spécimen a été trouvé en 1891 sur le mont Cameroun, au-dessus de Buéa, le second en 1968 sur le mont Manengouba. Des données complémentaires sur celui de Sao Tomé demeurent nécessaires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante épiphyte de la forêt dense de montagne, présente entre 1 000 et 1 700 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante épiphyte de la forêt dense de montagne, présente entre 1 000 et 1 700 m.
 </t>
         </is>
       </c>
